--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3696441.144284836</v>
+        <v>3694106.033082857</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.117545870714</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>196.9084561741325</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740153</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>103.5546456481094</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>286.588867942607</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.6532283794924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.2492457189759</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>73.07247998358801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.65115569188822</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.1193700387787</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1466.396332783113</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.433815842702</v>
+        <v>922.5193592425333</v>
       </c>
       <c r="D2" t="n">
-        <v>739.1681172359511</v>
+        <v>922.5193592425333</v>
       </c>
       <c r="E2" t="n">
-        <v>739.1681172359511</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>732.2226164867476</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>316.5178662110364</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847235</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1852.996172847235</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1531.84546790469</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1242.727130408528</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1242.727130408528</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.727130408528</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>535.7199774115529</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854577</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C5" t="n">
-        <v>359.340338545046</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251366</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251366</v>
+        <v>479.0728741272044</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>472.127373378001</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>359.629293016243</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>359.629293016243</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>209.5126536039072</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1366.00678639235</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1076.58961635539</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X7" t="n">
-        <v>848.6000654573724</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.6000654573724</v>
+        <v>541.2777578464827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2424.083128335929</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2241.228293990834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.867114152086</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>960.4603932171079</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.6678140735778</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,7 +6941,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107931</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-2.346079800807573e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.72409101823344</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621772</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621772</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819081</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>2.084476081704608e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756672</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756641</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756583</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756575</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675651</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756588</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-564426.1483367977</v>
+        <v>-564426.1483367971</v>
       </c>
       <c r="C6" t="n">
-        <v>550325.6352391222</v>
+        <v>550325.6352391223</v>
       </c>
       <c r="D6" t="n">
-        <v>390904.3652412301</v>
+        <v>390904.3652412302</v>
       </c>
       <c r="E6" t="n">
-        <v>330917.0777174871</v>
+        <v>330882.3397920514</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248425</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="G6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="H6" t="n">
-        <v>656329.5395248422</v>
+        <v>656294.8015994063</v>
       </c>
       <c r="I6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="J6" t="n">
-        <v>488724.3617148593</v>
+        <v>488689.6237894238</v>
       </c>
       <c r="K6" t="n">
-        <v>656329.5395248422</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="L6" t="n">
-        <v>608035.5695166514</v>
+        <v>608000.8315912158</v>
       </c>
       <c r="M6" t="n">
-        <v>571274.5115893306</v>
+        <v>571239.773663895</v>
       </c>
       <c r="N6" t="n">
-        <v>656329.5395248418</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="O6" t="n">
-        <v>656329.5395248423</v>
+        <v>656294.8015994063</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248422</v>
+        <v>656294.8015994065</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8128242015478</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104.1100963882728</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>117.1940503491025</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>68.09417367807595</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934616</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492468</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.06516334024</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550401</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>485.1127032082907</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>332.9841464938401</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>367.7110102589294</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750467</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717068</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>342.5164587638463</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0097390795098</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
